--- a/data/trans_bre/P27F_3_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P27F_3_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -602,239 +611,141 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>2,66</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-5,34</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>279,48%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-78,11%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>2.663961850948046</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-5.223729498210536</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>2.794811829048255</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.7736453500572892</v>
+      </c>
+      <c r="H4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-0,17; 6,96</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-13,46; -0,78</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 104,99</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-0.1697167939718189</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-13.55963131152598</v>
+      </c>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="6" t="inlineStr"/>
+      <c r="G5" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>6.956694343461023</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>-0.561562557300226</v>
+      </c>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="6" t="inlineStr"/>
+      <c r="G6" s="6" t="n">
+        <v>1.18123157716232</v>
+      </c>
+      <c r="H6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>1,97</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,09</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,73</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>100,37%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>42,2%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>37,7%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-2,06; 8,35</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-3,08; 5,72</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-2,72; 3,78</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-86,64; 721,64</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>1.971987313679462</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>1.005418118422947</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.7337122257610333</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>1.003703734114038</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.3903954648777237</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.4003858465213501</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1,9</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,43</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,65</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>138,41%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-16,3%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>185,77%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-2.06156897613748</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-3.080753449517874</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-2.518435396483878</v>
+      </c>
+      <c r="F8" s="6" t="inlineStr"/>
+      <c r="G8" s="6" t="n">
+        <v>-0.8677332126300139</v>
+      </c>
+      <c r="H8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-0,66; 4,79</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-4,45; 2,3</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-0,32; 4,23</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-43,69; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-86,11; 309,93</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-71,62; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>8.353639126801852</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>5.551442390084272</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>3.708926034055719</v>
+      </c>
+      <c r="F9" s="6" t="inlineStr"/>
+      <c r="G9" s="6" t="n">
+        <v>6.696569574476781</v>
+      </c>
+      <c r="H9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -842,239 +753,155 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0,95</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1,94</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-0,19</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>28,81%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>188,36%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-17,1%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>1.900931905337387</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.3804125651755329</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>1.563074779296542</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>1.384100438126121</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.1412944994291264</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>1.473685860987035</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-5,11; 4,69</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-0,47; 4,58</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-2,08; 1,22</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-72,87; 531,67</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-66,17; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-0.6572036142798516</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-4.493413314425949</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.7198579601686171</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.4368758245799973</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.8618019734469063</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.8390211275602322</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>4.788799297961606</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>2.559000970525746</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>4.265378717886982</v>
+      </c>
+      <c r="F12" s="6" t="inlineStr"/>
+      <c r="G12" s="6" t="n">
+        <v>3.215783543673546</v>
+      </c>
+      <c r="H12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-1,82</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>4,04</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,39</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-36,0%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>240,03%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>17,68%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-6,25; 2,2</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>0,96; 8,5</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-2,5; 3,66</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-80,08; 117,1</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>10,04; 1746,14</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-81,55; 538,67</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>0.9546111800680261</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.958014882641166</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.238615257461426</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.2881050869310366</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>1.938604651175406</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.2140680349167349</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>3,06</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>5,58</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>234,47%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-5.112884309761141</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.4652545275150355</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-2.228967174754991</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.7287058338199567</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.651303934976448</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-0,49; 4,17</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>1,14; 7,47</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0,9; 18,23</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>4.68678382694454</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>4.584733407350758</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>1.17346022000821</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>5.316702076015194</v>
+      </c>
+      <c r="G15" s="6" t="inlineStr"/>
+      <c r="H15" s="6" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1082,77 +909,235 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>1,07</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,8</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>1,52</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>49,06%</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>33,63%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>148,06%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-1.818688634643371</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>4.019890073316082</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0.2019656243017326</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>-0.3599942662067858</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>2.383397792961654</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>0.09003471689743202</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-0,57; 2,58</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-0,74; 2,43</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>0,26; 3,99</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-22,12; 183,71</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-26,99; 165,53</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>2,95; 531,14</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-6.247702692307098</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>0.9471229902415806</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-2.704254001955858</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>-0.8008269422321672</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>0.07370272809354372</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>-0.8436021977701594</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>2.200715632800694</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>8.497572219643615</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>3.246318160523368</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>1.171042248387547</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>17.06342577045906</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>4.669988227459819</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>1.203390417088878</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>2.912467771837759</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>4.602473152916989</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>2.344724623826975</v>
+      </c>
+      <c r="G19" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H19" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-0.4901120096433235</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>1.100182225291911</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.7030441510722962</v>
+      </c>
+      <c r="F20" s="6" t="inlineStr"/>
+      <c r="G20" s="6" t="inlineStr"/>
+      <c r="H20" s="6" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>4.167513317212392</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>7.032630060664914</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>14.34727661245376</v>
+      </c>
+      <c r="F21" s="6" t="inlineStr"/>
+      <c r="G21" s="6" t="inlineStr"/>
+      <c r="H21" s="6" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>1.074833780681377</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.7863913648049472</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>1.271490339205308</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>0.4905765961970481</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>0.3299051080564158</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>1.207483169975039</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-0.5720105581244094</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-0.7848120802759906</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.09611657894092195</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>-0.2212491460482566</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>-0.2753172746709289</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>-0.07083848837273303</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>2.578851267563584</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>2.365431499860097</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>3.238815042605619</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>1.837094114026561</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>1.613149896747472</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>4.428598415702499</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1161,15 +1146,15 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
